--- a/src/main/resources/ExcelFile/MultipleData.xlsx
+++ b/src/main/resources/ExcelFile/MultipleData.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15615" windowHeight="5550"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="StudentsInfo" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="AllDetails" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -72,9 +70,6 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>salf;skdfj dkjsa;fj jd;fd jj</t>
-  </si>
-  <si>
     <t>Rajasthan</t>
   </si>
   <si>
@@ -111,13 +106,10 @@
     <t>Maths, Chemistry</t>
   </si>
   <si>
-    <t>Keys</t>
-  </si>
-  <si>
-    <t>Values1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Values2</t>
+    <t xml:space="preserve">Mumbail near patole bridge </t>
+  </si>
+  <si>
+    <t>Pune saikunj apartment</t>
   </si>
 </sst>
 </file>
@@ -126,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +136,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,28 +167,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,184 +515,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="113.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="113.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8965421358</v>
+      </c>
+      <c r="F2" s="5">
+        <v>29300</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7986254132</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25699</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>7894561356</v>
-      </c>
-      <c r="C6" s="6">
-        <v>9845324865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>29384</v>
-      </c>
-      <c r="C7" s="4">
-        <v>29232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>